--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3119.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3119.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.627672408062432</v>
+        <v>2.212486028671265</v>
       </c>
       <c r="B1">
-        <v>2.277351127444655</v>
+        <v>2.673704385757446</v>
       </c>
       <c r="C1">
-        <v>4.097031001823336</v>
+        <v>2.812166929244995</v>
       </c>
       <c r="D1">
-        <v>3.921310285494738</v>
+        <v>2.554224729537964</v>
       </c>
       <c r="E1">
-        <v>0.5365707747003242</v>
+        <v>0.8132590055465698</v>
       </c>
     </row>
   </sheetData>
